--- a/biology/Botanique/Guide_phylogénétique_illustré_du_monde_végétal/Guide_phylogénétique_illustré_du_monde_végétal.xlsx
+++ b/biology/Botanique/Guide_phylogénétique_illustré_du_monde_végétal/Guide_phylogénétique_illustré_du_monde_végétal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guide_phylog%C3%A9n%C3%A9tique_illustr%C3%A9_du_monde_v%C3%A9g%C3%A9tal</t>
+          <t>Guide_phylogénétique_illustré_du_monde_végétal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce guide phylogénétique illustré du monde végétal permet, pour l'ensemble des groupes végétaux ainsi que pour les champignons, d'accéder directement aux images entreposées sur le site de Wikimedia Commons (base de données photographique et, comme Wikipédia, co-projet de Wikimedia). L'accès peut se faire soit de manière simplifiée vers les principaux grands groupes, soit de façon plus ciblée via un arbre phylogénétique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guide_phylog%C3%A9n%C3%A9tique_illustr%C3%A9_du_monde_v%C3%A9g%C3%A9tal</t>
+          <t>Guide_phylogénétique_illustré_du_monde_végétal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Accès simplifié et direct aux grands groupes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Champignons (en général)
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guide_phylog%C3%A9n%C3%A9tique_illustr%C3%A9_du_monde_v%C3%A9g%C3%A9tal</t>
+          <t>Guide_phylogénétique_illustré_du_monde_végétal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,9 +572,11 @@
           <t>Accès par l'arbre phylogénétique détaillé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre ci-dessous est en grande partie tiré de l'ouvrage de Lecointre, Classification phylogénétique du vivant[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre ci-dessous est en grande partie tiré de l'ouvrage de Lecointre, Classification phylogénétique du vivant.
 .
 Les liens de l'arbre phylogénétique (colonne de gauche) mènent aux articles correspondant de wikipédia. Ceux de la colonne de droite mènent aux pages Wikimedia Commons. Dans l'arbre phylogénétique, les groupes éteints n'ont pas été représentés. La classification phylogénétique étant en perpétuelle évolution, certains termes peuvent varier entre wikimedia commons et wikipédia. Une mise à jour permanente est nécessaire...
 Le signe (+) renvoie à la classification phylogénétique du groupe considéré.
